--- a/Data/4. 이력서.xlsx
+++ b/Data/4. 이력서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\내 드라이브\학교\3학년(4.5)(2023)\2학기\데이터베이스프로그래밍\과제\팀프로젝트\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669D4F47-F651-456D-B723-2BEC797D5D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF888F0-8252-4D60-9D33-D11BA91116B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{5D3DCC87-DA6F-4A0B-97EB-6D7310717928}"/>
+    <workbookView xWindow="8400" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{5D3DCC87-DA6F-4A0B-97EB-6D7310717928}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,22 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="237">
   <si>
-    <t>회원ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이력서명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>토익점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해외경험횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작성일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,6 +787,18 @@
   </si>
   <si>
     <t>학력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외_경험_횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,9 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4C01D0-34A0-4176-87F4-9432B5097074}">
   <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1208,33 +1206,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D2">
         <v>660</v>
@@ -1248,13 +1246,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D3">
         <v>670</v>
@@ -1268,13 +1266,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D4">
         <v>920</v>
@@ -1288,13 +1286,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D5">
         <v>660</v>
@@ -1308,13 +1306,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6">
         <v>710</v>
@@ -1328,13 +1326,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D7">
         <v>740</v>
@@ -1348,13 +1346,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8">
         <v>820</v>
@@ -1369,13 +1367,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>610</v>
@@ -1389,13 +1387,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D10">
         <v>650</v>
@@ -1409,13 +1407,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D11">
         <v>890</v>
@@ -1429,13 +1427,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D12">
         <v>720</v>
@@ -1449,13 +1447,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D13">
         <v>740</v>
@@ -1469,13 +1467,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D14">
         <v>740</v>
@@ -1489,13 +1487,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D15">
         <v>810</v>
@@ -1509,13 +1507,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D16">
         <v>710</v>
@@ -1529,13 +1527,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D17">
         <v>730</v>
@@ -1549,13 +1547,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D18">
         <v>710</v>
@@ -1569,13 +1567,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D19">
         <v>660</v>
@@ -1590,13 +1588,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D20">
         <v>860</v>
@@ -1611,13 +1609,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21">
         <v>740</v>
@@ -1632,13 +1630,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D22">
         <v>860</v>
@@ -1652,13 +1650,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D23">
         <v>870</v>
@@ -1672,13 +1670,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>900</v>
@@ -1692,13 +1690,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D25">
         <v>620</v>
@@ -1712,13 +1710,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D26">
         <v>670</v>
@@ -1732,13 +1730,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D27">
         <v>630</v>
@@ -1753,13 +1751,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D28">
         <v>530</v>
@@ -1774,13 +1772,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D29">
         <v>630</v>
@@ -1794,13 +1792,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D30">
         <v>860</v>
@@ -1814,13 +1812,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D31">
         <v>680</v>
@@ -1834,13 +1832,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D32">
         <v>690</v>
@@ -1854,13 +1852,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D33">
         <v>850</v>
@@ -1874,13 +1872,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D34">
         <v>640</v>
@@ -1894,13 +1892,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D35">
         <v>760</v>
@@ -1914,13 +1912,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D36">
         <v>660</v>
@@ -1934,13 +1932,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D37">
         <v>690</v>
@@ -1954,13 +1952,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D38">
         <v>350</v>
@@ -1975,13 +1973,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D39">
         <v>660</v>
@@ -1996,13 +1994,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D40">
         <v>650</v>
@@ -2016,13 +2014,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D41">
         <v>700</v>
@@ -2036,13 +2034,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D42">
         <v>830</v>
@@ -2056,13 +2054,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D43">
         <v>620</v>
@@ -2076,13 +2074,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D44">
         <v>630</v>
@@ -2096,13 +2094,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D45">
         <v>540</v>
@@ -2116,13 +2114,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D46">
         <v>650</v>
@@ -2136,13 +2134,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D47">
         <v>520</v>
@@ -2156,13 +2154,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D48">
         <v>880</v>
@@ -2176,13 +2174,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D49">
         <v>600</v>
@@ -2196,13 +2194,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D50">
         <v>670</v>
@@ -2216,13 +2214,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D51">
         <v>740</v>
@@ -2236,13 +2234,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D52">
         <v>770</v>
@@ -2256,13 +2254,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D53">
         <v>910</v>
@@ -2276,13 +2274,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D54">
         <v>630</v>
@@ -2296,13 +2294,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D55">
         <v>650</v>
@@ -2316,13 +2314,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D56">
         <v>870</v>
@@ -2337,13 +2335,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D57">
         <v>910</v>
@@ -2358,13 +2356,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D58">
         <v>630</v>
@@ -2378,13 +2376,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59">
         <v>770</v>
@@ -2399,13 +2397,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60">
         <v>530</v>
@@ -2419,13 +2417,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61">
         <v>630</v>
@@ -2439,13 +2437,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D62">
         <v>930</v>
@@ -2459,13 +2457,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D63">
         <v>930</v>
@@ -2479,13 +2477,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D64">
         <v>680</v>
@@ -2499,13 +2497,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D65">
         <v>690</v>
@@ -2520,13 +2518,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D66">
         <v>980</v>
@@ -2541,13 +2539,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D67">
         <v>650</v>
@@ -2561,13 +2559,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D68">
         <v>790</v>
@@ -2581,13 +2579,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D69">
         <v>320</v>
@@ -2601,13 +2599,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D70">
         <v>620</v>
@@ -2621,13 +2619,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D71">
         <v>650</v>
@@ -2641,13 +2639,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D72">
         <v>830</v>
@@ -2661,13 +2659,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D73">
         <v>850</v>
@@ -2681,13 +2679,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74">
         <v>910</v>
@@ -2701,13 +2699,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D75">
         <v>910</v>
@@ -2721,13 +2719,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D76">
         <v>610</v>
@@ -2742,13 +2740,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D77">
         <v>630</v>
@@ -2762,13 +2760,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D78">
         <v>690</v>
@@ -2782,13 +2780,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D79">
         <v>980</v>
@@ -2802,13 +2800,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D80">
         <v>710</v>
@@ -2822,13 +2820,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D81">
         <v>780</v>
@@ -2842,13 +2840,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D82">
         <v>620</v>
@@ -2862,13 +2860,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D83">
         <v>700</v>
@@ -2882,13 +2880,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D84">
         <v>690</v>
@@ -2902,13 +2900,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D85">
         <v>670</v>
@@ -2923,13 +2921,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B86" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D86">
         <v>730</v>
@@ -2944,13 +2942,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D87">
         <v>670</v>
@@ -2965,13 +2963,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D88">
         <v>620</v>
@@ -2986,13 +2984,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D89">
         <v>620</v>
@@ -3006,13 +3004,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D90">
         <v>930</v>
@@ -3026,13 +3024,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D91">
         <v>890</v>
@@ -3047,13 +3045,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D92">
         <v>610</v>
@@ -3068,13 +3066,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D93">
         <v>730</v>
@@ -3088,13 +3086,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D94">
         <v>750</v>
@@ -3108,13 +3106,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D95">
         <v>830</v>
@@ -3128,13 +3126,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C96" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D96">
         <v>870</v>
@@ -3148,13 +3146,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D97">
         <v>580</v>
@@ -3168,13 +3166,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D98">
         <v>730</v>
@@ -3188,13 +3186,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D99">
         <v>640</v>
@@ -3208,13 +3206,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D100">
         <v>680</v>
@@ -3228,13 +3226,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D101">
         <v>910</v>
@@ -3248,13 +3246,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D102">
         <v>640</v>
@@ -3268,13 +3266,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D103">
         <v>720</v>
@@ -3288,13 +3286,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C104" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D104">
         <v>770</v>
@@ -3308,13 +3306,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C105" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D105">
         <v>800</v>
@@ -3328,13 +3326,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D106">
         <v>680</v>
@@ -3348,13 +3346,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D107">
         <v>680</v>
@@ -3368,13 +3366,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D108">
         <v>430</v>
@@ -3389,13 +3387,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C109" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D109">
         <v>850</v>
@@ -3410,13 +3408,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D110">
         <v>920</v>
@@ -3430,13 +3428,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C111" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D111">
         <v>920</v>
@@ -3450,13 +3448,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B112" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D112">
         <v>610</v>
@@ -3470,13 +3468,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D113">
         <v>690</v>
@@ -3490,13 +3488,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B114" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D114">
         <v>740</v>
@@ -3510,13 +3508,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B115" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D115">
         <v>790</v>
@@ -3530,13 +3528,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C116" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D116">
         <v>730</v>
@@ -3550,13 +3548,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C117" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D117">
         <v>810</v>
@@ -3570,13 +3568,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D118">
         <v>910</v>
@@ -3590,13 +3588,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D119">
         <v>910</v>
@@ -3610,13 +3608,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D120">
         <v>970</v>
@@ -3630,13 +3628,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B121" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D121">
         <v>680</v>
@@ -3650,13 +3648,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C122" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D122">
         <v>570</v>
@@ -3670,13 +3668,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B123" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D123">
         <v>610</v>
@@ -3690,13 +3688,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D124">
         <v>920</v>
@@ -3711,13 +3709,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D125">
         <v>940</v>
@@ -3731,13 +3729,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C126" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D126">
         <v>620</v>
@@ -3751,13 +3749,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C127" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D127">
         <v>260</v>
@@ -3771,13 +3769,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C128" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D128">
         <v>790</v>
@@ -3791,13 +3789,13 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C129" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D129">
         <v>670</v>
@@ -3812,13 +3810,13 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B130" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C130" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D130">
         <v>700</v>
@@ -3832,13 +3830,13 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C131" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D131">
         <v>640</v>
@@ -3853,13 +3851,13 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B132" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D132">
         <v>700</v>
@@ -3873,13 +3871,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B133" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D133">
         <v>610</v>
@@ -3893,13 +3891,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C134" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D134">
         <v>630</v>
@@ -3913,13 +3911,13 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C135" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D135">
         <v>650</v>
@@ -3933,13 +3931,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B136" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C136" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D136">
         <v>860</v>
@@ -3953,13 +3951,13 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C137" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D137">
         <v>860</v>
@@ -3973,13 +3971,13 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B138" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C138" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D138">
         <v>810</v>
@@ -3994,13 +3992,13 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C139" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D139">
         <v>860</v>
@@ -4014,13 +4012,13 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C140" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D140">
         <v>670</v>
@@ -4034,13 +4032,13 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D141">
         <v>690</v>
@@ -4054,13 +4052,13 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D142">
         <v>320</v>
@@ -4074,13 +4072,13 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C143" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D143">
         <v>750</v>
@@ -4096,13 +4094,13 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D144">
         <v>780</v>
@@ -4118,13 +4116,13 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C145" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D145">
         <v>850</v>
@@ -4140,13 +4138,13 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B146" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C146" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D146">
         <v>880</v>
@@ -4162,13 +4160,13 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B147" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D147">
         <v>650</v>
@@ -4184,13 +4182,13 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B148" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D148">
         <v>680</v>
@@ -4206,13 +4204,13 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B149" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D149">
         <v>840</v>
@@ -4228,13 +4226,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D150">
         <v>850</v>
@@ -4250,13 +4248,13 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B151" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C151" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D151">
         <v>910</v>
